--- a/data dan database/Data Siswa Kelas X + NIS TP 2022_2023.xlsx
+++ b/data dan database/Data Siswa Kelas X + NIS TP 2022_2023.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-voting-master\data dan database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1456D7A5-938F-4CEC-8F3F-37820B08CA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15600" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PPLG" sheetId="3" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="367">
   <si>
     <t>No.</t>
   </si>
@@ -1084,17 +1090,53 @@
   </si>
   <si>
     <t>Bethany Lydia Marpaung</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>x pplg</t>
+  </si>
+  <si>
+    <t>pplgvoting</t>
+  </si>
+  <si>
+    <t>x dkv</t>
+  </si>
+  <si>
+    <t>dkvvoting</t>
+  </si>
+  <si>
+    <t>x tp</t>
+  </si>
+  <si>
+    <t>xtpvote</t>
+  </si>
+  <si>
+    <t>x bkp</t>
+  </si>
+  <si>
+    <t>xbkpvote</t>
+  </si>
+  <si>
+    <t>kulinervoting</t>
+  </si>
+  <si>
+    <t>x kuliner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1151,8 +1193,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1171,8 +1228,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1195,6 +1258,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1202,37 +1274,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1243,685 +1306,136 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="235">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+  <dxfs count="250">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1942,6 +1456,580 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2124,413 +2212,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2551,6 +2240,440 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2902,6 +3025,41 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3022,6 +3180,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3070,7 +3231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3102,9 +3263,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3136,6 +3315,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3311,782 +3508,757 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="20" style="15" customWidth="1"/>
-    <col min="3" max="3" width="57" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="5.54296875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20" style="12" customWidth="1"/>
+    <col min="3" max="3" width="57" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="A2" s="29" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="10">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="21">
         <v>1011537</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="10">
+      <c r="D4" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="21">
         <v>1011538</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="10">
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="21">
         <v>1011539</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="10">
+    <row r="7" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="21">
         <v>1011540</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="10">
+    <row r="8" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="21">
         <v>1011541</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="10">
+    <row r="9" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="21">
         <v>1011542</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="10">
+    <row r="10" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="21">
         <v>1011543</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="10">
+    <row r="11" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="21">
         <v>1011544</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="10">
+    <row r="12" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="21">
         <v>1011545</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="10">
+    <row r="13" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="21">
         <v>1011546</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="10">
+    <row r="14" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
         <v>11</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="21">
         <v>1011547</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="10">
+    <row r="15" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
         <v>12</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="21">
         <v>1011548</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="20.25">
-      <c r="C17" s="23" t="s">
+    <row r="17" spans="3:3" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="C17" s="18" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="20.25">
-      <c r="C18" s="23" t="s">
+    <row r="18" spans="3:3" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="C18" s="18" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="49"/>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="49" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
         <v>311</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="234" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="233" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="232" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="231" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="duplicateValues" dxfId="230" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="duplicateValues" dxfId="229" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="duplicateValues" dxfId="228" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="227" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="226" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="225" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="224" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="31"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" text="TB" id="{00D28C6E-E17B-4A61-A2BC-8BB62E6CF013}">
-            <xm:f>NOT(ISERROR(SEARCH("TB",TKP!#REF!)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="10" stopIfTrue="1" operator="containsText" text="TKRO" id="{973DCAF4-B9D1-4C87-AD39-90ACA84F111A}">
-            <xm:f>NOT(ISERROR(SEARCH("TKRO",TKP!#REF!)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="11" operator="containsText" text="BKP" id="{B3FD9E73-F926-43E7-BE76-21F1DD0FD211}">
-            <xm:f>NOT(ISERROR(SEARCH("BKP",TKP!#REF!)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="12" operator="containsText" text="MM" id="{6173ED3A-2BDF-478D-9EAD-00BC16D8F629}">
-            <xm:f>NOT(ISERROR(SEARCH("MM",TKP!#REF!)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="13" operator="containsText" text="RPL" id="{ED5D910A-12AD-460F-9F87-10933537231F}">
-            <xm:f>NOT(ISERROR(SEARCH("RPL",TKP!#REF!)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFFF00"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>#REF!</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" style="48" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="48" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="48" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="48" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" style="48" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="48" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="48" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" style="48" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="48"/>
+    <col min="1" max="1" width="7.1796875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="51.81640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" style="36" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="36" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="36" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="42.7265625" style="36" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" style="36" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="36" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7265625" style="36" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" style="36" customWidth="1"/>
+    <col min="12" max="12" width="21" style="36" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="36"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="65.25" customHeight="1">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" ht="65.25" customHeight="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="33" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="5">
+      <c r="K4" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>2011549</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="17" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="32" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="5">
+      <c r="K5" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>2011550</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="13" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="5">
+      <c r="K6" s="47"/>
+      <c r="L6" s="49"/>
+    </row>
+    <row r="7" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>2011551</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="5">
+    <row r="8" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>2011552</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="16" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="5">
+    <row r="9" spans="1:12" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>2011553</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="40" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1">
-      <c r="A10" s="5">
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>2011554</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="23" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A11" s="5">
+    <row r="11" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>2011555</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A12" s="5">
+    <row r="12" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>2011556</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="12" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="5">
+    <row r="13" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>2011557</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="43" t="s">
+      <c r="J13" s="33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="5">
+    <row r="14" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>2011558</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="16" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="41" t="s">
+      <c r="J14" s="32" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="5">
+    <row r="15" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>2011559</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="41" t="s">
+      <c r="J15" s="32" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A16" s="5">
+    <row r="16" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>2011560</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="53" t="s">
+      <c r="J16" s="40" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A17" s="5">
+    <row r="17" spans="1:10" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>2011561</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="41" t="s">
+      <c r="J17" s="32" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1"/>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="C19" s="24" t="s">
+    <row r="18" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="36" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="C20" s="24" t="s">
+    <row r="20" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="36" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="D21" s="48" t="s">
+    <row r="21" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="36" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="29.25" customHeight="1">
-      <c r="C22" s="56" t="s">
+    <row r="22" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="42" t="s">
         <v>332</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
@@ -4094,137 +4266,137 @@
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:F9 E11:F17">
-    <cfRule type="containsText" dxfId="223" priority="28" operator="containsText" text="TB">
+    <cfRule type="containsText" dxfId="233" priority="28" operator="containsText" text="TB">
       <formula>NOT(ISERROR(SEARCH("TB",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="29" stopIfTrue="1" operator="containsText" text="TKRO">
+    <cfRule type="containsText" dxfId="232" priority="29" stopIfTrue="1" operator="containsText" text="TKRO">
       <formula>NOT(ISERROR(SEARCH("TKRO",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="30" operator="containsText" text="BKP">
+    <cfRule type="containsText" dxfId="231" priority="30" operator="containsText" text="BKP">
       <formula>NOT(ISERROR(SEARCH("BKP",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="31" operator="containsText" text="MM">
+    <cfRule type="containsText" dxfId="230" priority="31" operator="containsText" text="MM">
       <formula>NOT(ISERROR(SEARCH("MM",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="32" operator="containsText" text="RPL">
+    <cfRule type="containsText" dxfId="229" priority="32" operator="containsText" text="RPL">
       <formula>NOT(ISERROR(SEARCH("RPL",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:F14">
-    <cfRule type="containsText" dxfId="218" priority="28" operator="containsText" text="TP">
+    <cfRule type="containsText" dxfId="228" priority="33" operator="containsText" text="TP">
       <formula>NOT(ISERROR(SEARCH("TP",E12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="duplicateValues" dxfId="217" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="216" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="215" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="duplicateValues" dxfId="214" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="duplicateValues" dxfId="213" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="duplicateValues" dxfId="212" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="211" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="duplicateValues" dxfId="210" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="209" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="208" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="207" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="duplicateValues" dxfId="206" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="205" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="duplicateValues" dxfId="204" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="203" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="duplicateValues" dxfId="202" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="duplicateValues" dxfId="201" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="duplicateValues" dxfId="200" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="duplicateValues" dxfId="199" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="duplicateValues" dxfId="198" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="duplicateValues" dxfId="197" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="duplicateValues" dxfId="196" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="duplicateValues" dxfId="195" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="194" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="duplicateValues" dxfId="193" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="duplicateValues" dxfId="192" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="duplicateValues" dxfId="191" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="190" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="duplicateValues" dxfId="189" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="duplicateValues" dxfId="188" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="187" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="186" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="duplicateValues" dxfId="185" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="duplicateValues" dxfId="184" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="183" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="duplicateValues" dxfId="182" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="duplicateValues" dxfId="181" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="176"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4232,742 +4404,756 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:L28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="49"/>
-    <col min="2" max="2" width="26.42578125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="49" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="55" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="49" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="49" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="21" style="49" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" style="49" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" style="49" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="49"/>
+    <col min="2" max="2" width="26.453125" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="41" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="21" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="30.1796875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.453125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" customWidth="1"/>
+    <col min="12" max="12" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="33" t="s">
+      <c r="F2" s="45"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="5">
+      <c r="K3" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>2011562</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="33">
         <v>2771</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="5">
+      <c r="K4" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>2011563</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="5">
+      <c r="K5" s="47"/>
+      <c r="L5" s="49"/>
+    </row>
+    <row r="6" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>2011564</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-    </row>
-    <row r="7" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="5">
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>2011565</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="5">
+    <row r="8" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>2011566</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="5">
+    <row r="9" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>2011567</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="27"/>
-    </row>
-    <row r="10" spans="1:10" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="5">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="H9" s="22"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>2011568</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-    </row>
-    <row r="11" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A11" s="5">
+      <c r="F10" s="1"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+    </row>
+    <row r="11" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>2011569</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="41" t="s">
+      <c r="J11" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A12" s="5">
+    <row r="12" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>2011570</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="5">
+    <row r="13" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>2011571</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="33">
         <v>3073527020</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="5">
+    <row r="14" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>2011572</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="51" t="s">
+      <c r="J14" s="38" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="5">
+    <row r="15" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>2011573</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A16" s="5">
+    <row r="16" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>2011574</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="43" t="s">
+      <c r="J16" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A17" s="5">
+    <row r="17" spans="1:10" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>2011575</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A18" s="5">
+    <row r="18" spans="1:10" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>2011576</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="52" t="s">
+      <c r="G18" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="41" t="s">
+      <c r="H18" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="41" t="s">
+      <c r="J18" s="32" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="16" customFormat="1" ht="30" customHeight="1">
-      <c r="A19" s="5">
+    <row r="19" spans="1:10" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>2011577</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="53" t="s">
+      <c r="J19" s="40" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="5">
+    <row r="20" spans="1:10" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>2011578</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="41" t="s">
+      <c r="J20" s="32" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A21" s="5">
+    <row r="21" spans="1:10" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
         <v>18</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>2011579</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="H21" s="41" t="s">
+      <c r="H21" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="41" t="s">
+      <c r="J21" s="32" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A22" s="5">
+    <row r="22" spans="1:10" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>2011580</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="44" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="H22" s="54" t="s">
+      <c r="H22" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-    </row>
-    <row r="23" spans="1:10" s="16" customFormat="1" ht="30" customHeight="1">
-      <c r="A23" s="5">
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+    </row>
+    <row r="23" spans="1:10" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>2011581</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="27" t="s">
+      <c r="J23" s="22" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="27"/>
-    </row>
-    <row r="25" spans="1:10" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="24" t="s">
+    <row r="24" spans="1:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="27"/>
-    </row>
-    <row r="26" spans="1:10" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="24" t="s">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="1:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="27"/>
-    </row>
-    <row r="27" spans="1:10" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="25" t="s">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="27"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75">
-      <c r="C28" s="24" t="s">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C28" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="D28" s="30"/>
+      <c r="D28" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -4975,851 +5161,825 @@
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="G2">
-    <cfRule type="duplicateValues" dxfId="180" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="179" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="178" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="duplicateValues" dxfId="177" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F27">
-    <cfRule type="containsText" dxfId="176" priority="161" operator="containsText" text="TB">
+    <cfRule type="containsText" dxfId="186" priority="161" operator="containsText" text="TB">
       <formula>NOT(ISERROR(SEARCH("TB",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="162" stopIfTrue="1" operator="containsText" text="TKRO">
+    <cfRule type="containsText" dxfId="185" priority="162" stopIfTrue="1" operator="containsText" text="TKRO">
       <formula>NOT(ISERROR(SEARCH("TKRO",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="163" operator="containsText" text="BKP">
+    <cfRule type="containsText" dxfId="184" priority="163" operator="containsText" text="BKP">
       <formula>NOT(ISERROR(SEARCH("BKP",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="164" operator="containsText" text="MM">
+    <cfRule type="containsText" dxfId="183" priority="164" operator="containsText" text="MM">
       <formula>NOT(ISERROR(SEARCH("MM",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="165" operator="containsText" text="RPL">
+    <cfRule type="containsText" dxfId="182" priority="165" operator="containsText" text="RPL">
       <formula>NOT(ISERROR(SEARCH("RPL",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="171" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="170" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="duplicateValues" dxfId="169" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="duplicateValues" dxfId="168" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:F6 E10:F11 E13:F13 E17:F17 E21:F22">
-    <cfRule type="containsText" dxfId="167" priority="150" operator="containsText" text="TP">
+    <cfRule type="containsText" dxfId="177" priority="150" operator="containsText" text="TP">
       <formula>NOT(ISERROR(SEARCH("TP",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="duplicateValues" dxfId="166" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="165" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="duplicateValues" dxfId="164" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="163" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="162" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="161" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="160" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="duplicateValues" dxfId="159" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D9">
-    <cfRule type="duplicateValues" dxfId="158" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G9">
-    <cfRule type="duplicateValues" dxfId="157" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="duplicateValues" dxfId="156" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="duplicateValues" dxfId="155" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="duplicateValues" dxfId="154" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="duplicateValues" dxfId="153" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="duplicateValues" dxfId="152" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="duplicateValues" dxfId="151" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="duplicateValues" dxfId="150" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="149" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="duplicateValues" dxfId="148" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="duplicateValues" dxfId="147" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="146" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="duplicateValues" dxfId="145" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="duplicateValues" dxfId="144" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="duplicateValues" dxfId="143" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="142" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="141" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="duplicateValues" dxfId="140" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="duplicateValues" dxfId="139" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="duplicateValues" dxfId="138" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="137" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="duplicateValues" dxfId="136" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="duplicateValues" dxfId="135" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="134" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="duplicateValues" dxfId="133" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="duplicateValues" dxfId="132" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="duplicateValues" dxfId="131" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="duplicateValues" dxfId="130" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="duplicateValues" dxfId="129" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="duplicateValues" dxfId="128" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="duplicateValues" dxfId="127" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="duplicateValues" dxfId="126" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="duplicateValues" dxfId="125" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D24">
-    <cfRule type="duplicateValues" dxfId="124" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:G27">
-    <cfRule type="duplicateValues" dxfId="123" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C24">
-    <cfRule type="duplicateValues" dxfId="122" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="16"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="5.54296875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="51.54296875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="A2" s="29" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="5">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>3011582</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="8">
+      <c r="D4" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="13" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>3011583</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="5">
+      <c r="D5" s="47"/>
+      <c r="E5" s="49"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>3011584</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="5">
+    <row r="7" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>3011585</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="8">
+    <row r="8" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>3011586</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="5">
+    <row r="9" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>3011587</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="5">
+    <row r="10" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>3011588</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="8">
+    <row r="11" spans="1:5" s="13" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>3011589</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="5">
+    <row r="12" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>3011590</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="5">
+    <row r="13" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>3011591</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="8">
+    <row r="14" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>3011592</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="5">
+    <row r="15" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="6">
         <v>3011593</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="5">
+    <row r="16" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>3011594</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="8">
+    <row r="17" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <v>3011595</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="5">
+    <row r="18" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>3011596</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="5">
+    <row r="19" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="6">
         <v>3011597</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="8">
+    <row r="20" spans="1:3" s="13" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
         <v>17</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>3011598</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="17" customFormat="1"/>
-    <row r="23" spans="1:3" s="17" customFormat="1">
-      <c r="C23" s="49"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="C24" s="49"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="C25" s="49"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C25"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="121" priority="347"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="347"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="120" priority="317"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="317"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="119" priority="303"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="duplicateValues" dxfId="118" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="duplicateValues" dxfId="117" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="116" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="duplicateValues" dxfId="115" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="114" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="113" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="112" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="duplicateValues" dxfId="111" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="duplicateValues" dxfId="110" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="duplicateValues" dxfId="109" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="duplicateValues" dxfId="108" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="107" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="38" operator="containsText" text="TB" id="{87714282-4239-43AF-9504-25AAB56DDCE5}">
-            <xm:f>NOT(ISERROR(SEARCH("TB",TKP!#REF!)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="39" stopIfTrue="1" operator="containsText" text="TKRO" id="{C6163075-8FB2-464B-8F71-64081D702C07}">
-            <xm:f>NOT(ISERROR(SEARCH("TKRO",TKP!#REF!)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="40" operator="containsText" text="BKP" id="{551F2FAE-17F8-475B-8A24-0FC2655B5A20}">
-            <xm:f>NOT(ISERROR(SEARCH("BKP",TKP!#REF!)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="41" operator="containsText" text="MM" id="{A7F6E8D6-5F62-4688-BC28-8D7C79EA05CE}">
-            <xm:f>NOT(ISERROR(SEARCH("MM",TKP!#REF!)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="42" operator="containsText" text="RPL" id="{4ED89133-0F9F-4E7A-84FF-F5D592AA0B6A}">
-            <xm:f>NOT(ISERROR(SEARCH("RPL",TKP!#REF!)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFFF00"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>#REF!</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="50.5703125" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="5.54296875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="50.54296875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="A2" s="29" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="5">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>4011599</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="5">
+      <c r="D4" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>4011600</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="5">
+      <c r="D5" s="47"/>
+      <c r="E5" s="49"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>4011601</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="5">
+    <row r="7" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>4011602</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="5">
+    <row r="8" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>4011603</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="5">
+    <row r="9" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>4011604</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="5">
+    <row r="10" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>4011605</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="5">
+    <row r="11" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>4011606</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="5">
+    <row r="12" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>4011607</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="5">
+    <row r="13" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>4011608</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="5">
+    <row r="14" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>4011609</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="5">
+    <row r="15" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>4011610</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="5">
+    <row r="16" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>4011611</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="5">
+    <row r="17" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>4011612</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="5">
+    <row r="18" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>4011613</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="5">
+    <row r="19" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>4011614</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="5">
+    <row r="20" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>4011615</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="5">
+    <row r="21" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
         <v>18</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>4011616</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="5">
+    <row r="22" spans="1:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>4011617</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="C25" s="48" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C25" s="36" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="C26" s="48" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C26" s="36" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="C27" s="15" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C27" s="12" t="s">
         <v>314</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="106" priority="461"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="105" priority="453"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="453"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="104" priority="421"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="421"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="103" priority="397"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="397"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="duplicateValues" dxfId="102" priority="396"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="396"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="duplicateValues" dxfId="101" priority="371"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="371"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="duplicateValues" dxfId="100" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="99" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="98" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="97" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="96" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="duplicateValues" dxfId="95" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="duplicateValues" dxfId="94" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="duplicateValues" dxfId="93" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="duplicateValues" dxfId="92" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="91" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="23"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="346" scale="28" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5827,1140 +5987,1152 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="15" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="15" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="20" style="15" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="15" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="15" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="15" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="5.54296875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="34.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" style="12" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7265625" style="12" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="20" style="12" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" style="12" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" style="12" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="12" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="17.26953125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="18.6328125" style="12" customWidth="1"/>
+    <col min="15" max="16384" width="9.1796875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="2"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="A2" s="29" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="31.5">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="33" t="s">
+      <c r="F2" s="45"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="5">
+      <c r="M3" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>5011618</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="28">
         <v>39476</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="9">
+      <c r="M4" s="47" t="s">
+        <v>366</v>
+      </c>
+      <c r="N4" s="49" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="14" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>5011619</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="31">
         <v>39154</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="5">
+      <c r="M5" s="47"/>
+      <c r="N5" s="49"/>
+    </row>
+    <row r="6" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>5011620</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="28" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="5">
+    <row r="7" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>5011621</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="28">
         <v>38990</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="9">
+    <row r="8" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>5011622</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="28">
         <v>41274</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="5">
+    <row r="9" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>5011623</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="28">
         <v>39281</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="5">
+    <row r="10" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>5011624</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="28">
         <v>39020</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="9">
+    <row r="11" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>5011625</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="28">
         <v>39542</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="5">
+    <row r="12" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>5011626</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12" s="28">
         <v>39112</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="5">
+    <row r="13" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <v>5011627</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="43" t="s">
+      <c r="J13" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="L13" s="42">
+      <c r="L13" s="28">
         <v>39013</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="9">
+    <row r="14" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>5011628</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="L14" s="42"/>
-    </row>
-    <row r="15" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="5">
+      <c r="F14" s="1"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="7">
         <v>5011629</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="16" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="L15" s="36"/>
-    </row>
-    <row r="16" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="5">
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="L15" s="28"/>
+    </row>
+    <row r="16" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>5011630</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="L16" s="36"/>
-    </row>
-    <row r="17" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="9">
+      <c r="F16" s="1"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="7">
         <v>5011631</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="41" t="s">
+      <c r="J17" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="L17" s="36">
+      <c r="L17" s="28">
         <v>39395</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="5">
+    <row r="18" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>5011632</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="41" t="s">
+      <c r="J18" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="34">
         <v>38991</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="5">
+    <row r="19" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="7">
         <v>5011633</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J19" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="L19" s="36">
+      <c r="L19" s="28">
         <v>39513</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="9">
+    <row r="20" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>5011634</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="41" t="s">
+      <c r="J20" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="28">
         <v>39127</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="5">
+    <row r="21" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
         <v>18</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="7">
         <v>5011635</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="H21" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I21" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="40" t="s">
+      <c r="J21" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="28">
         <v>38993</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="5">
+    <row r="22" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>5011636</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="14">
         <v>14366</v>
       </c>
-      <c r="K22" s="47" t="s">
+      <c r="K22" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="31">
         <v>39232</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="9">
+    <row r="23" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="7">
         <v>5011637</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="L23" s="36"/>
-    </row>
-    <row r="24" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="5">
+      <c r="F23" s="1"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>5011638</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="H24" s="41" t="s">
+      <c r="H24" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="I24" s="41" t="s">
+      <c r="I24" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="41" t="s">
+      <c r="J24" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="K24" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="L24" s="36">
+      <c r="L24" s="28">
         <v>39115</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="5">
+    <row r="25" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
         <v>22</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="7">
         <v>5011639</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="I25" s="40" t="s">
+      <c r="I25" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="40">
+      <c r="J25" s="22">
         <v>1306</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="L25" s="36">
+      <c r="L25" s="28">
         <v>39456</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="9">
+    <row r="26" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>5011640</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="16" t="s">
+      <c r="F26" s="1"/>
+      <c r="G26" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="K26" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="L26" s="36">
+      <c r="L26" s="28">
         <v>39073</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="5">
+    <row r="27" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
         <v>24</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="7">
         <v>5011641</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="L27" s="36"/>
-    </row>
-    <row r="28" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="5">
+      <c r="F27" s="1"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="L27" s="28"/>
+    </row>
+    <row r="28" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
         <v>25</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>5011642</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="40" t="s">
+      <c r="J28" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="K28" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="L28" s="36">
+      <c r="L28" s="28">
         <v>39234</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="9">
+    <row r="29" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="7">
         <v>5011643</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="H29" s="41" t="s">
+      <c r="H29" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="I29" s="41" t="s">
+      <c r="I29" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="41" t="s">
+      <c r="J29" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="K29" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L29" s="39">
+      <c r="L29" s="31">
         <v>39017</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="5">
+    <row r="30" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
         <v>27</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>5011644</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="27" t="s">
+      <c r="J30" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="K30" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="L30" s="42">
+      <c r="L30" s="28">
         <v>39292</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="5">
+    <row r="31" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
         <v>28</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="7">
         <v>5011645</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I31" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="J31" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="K31" s="17" t="s">
+      <c r="K31" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="L31" s="36">
+      <c r="L31" s="28">
         <v>39065</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="37">
+    <row r="32" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="29">
         <v>29</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>5011646</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="40" t="s">
+      <c r="J32" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="K32" s="17" t="s">
+      <c r="K32" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="L32" s="36">
+      <c r="L32" s="28">
         <v>39200</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
-      <c r="C35" s="24" t="s">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C35" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="20" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
-      <c r="C36" s="24" t="s">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C36" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="20" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="3:4">
-      <c r="C37" s="30"/>
-      <c r="D37" s="25" t="s">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C37" s="24"/>
+      <c r="D37" s="20" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="3:4">
-      <c r="C38" s="30" t="s">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C38" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="D38" s="30"/>
+      <c r="D38" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -6968,288 +7140,288 @@
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="G2">
-    <cfRule type="duplicateValues" dxfId="90" priority="621"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="621"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="89" priority="622"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="622"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="88" priority="623"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="623"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="duplicateValues" dxfId="87" priority="624"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="624"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:L20 E4:F32">
-    <cfRule type="containsText" dxfId="86" priority="609" operator="containsText" text="TB">
+    <cfRule type="containsText" dxfId="91" priority="609" operator="containsText" text="TB">
       <formula>NOT(ISERROR(SEARCH("TB",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="610" stopIfTrue="1" operator="containsText" text="TKRO">
+    <cfRule type="containsText" dxfId="90" priority="610" stopIfTrue="1" operator="containsText" text="TKRO">
       <formula>NOT(ISERROR(SEARCH("TKRO",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="611" operator="containsText" text="BKP">
+    <cfRule type="containsText" dxfId="89" priority="611" operator="containsText" text="BKP">
       <formula>NOT(ISERROR(SEARCH("BKP",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="612" operator="containsText" text="MM">
+    <cfRule type="containsText" dxfId="88" priority="612" operator="containsText" text="MM">
       <formula>NOT(ISERROR(SEARCH("MM",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="613" operator="containsText" text="RPL">
+    <cfRule type="containsText" dxfId="87" priority="613" operator="containsText" text="RPL">
       <formula>NOT(ISERROR(SEARCH("RPL",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="duplicateValues" dxfId="81" priority="608"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="608"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F32">
-    <cfRule type="containsText" dxfId="80" priority="607" operator="containsText" text="TP">
+    <cfRule type="containsText" dxfId="85" priority="607" operator="containsText" text="TP">
       <formula>NOT(ISERROR(SEARCH("TP",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="79" priority="614"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="614"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="78" priority="615"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="615"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="duplicateValues" dxfId="77" priority="590"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="590"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="duplicateValues" dxfId="76" priority="584"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="584"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="75" priority="583"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="583"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="duplicateValues" dxfId="74" priority="581"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="581"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="73" priority="582"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="582"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="duplicateValues" dxfId="72" priority="552"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="552"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="71" priority="550"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="550"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="70" priority="558"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="558"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="69" priority="533"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="533"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="duplicateValues" dxfId="68" priority="527"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="527"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="duplicateValues" dxfId="67" priority="526"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="526"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="duplicateValues" dxfId="66" priority="525"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="525"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="duplicateValues" dxfId="65" priority="519"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="519"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="duplicateValues" dxfId="64" priority="518"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="518"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="duplicateValues" dxfId="63" priority="510"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="510"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="duplicateValues" dxfId="62" priority="516"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="516"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="61" priority="517"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="517"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="duplicateValues" dxfId="60" priority="485"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="duplicateValues" dxfId="59" priority="491"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="491"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="duplicateValues" dxfId="58" priority="492"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="492"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="duplicateValues" dxfId="57" priority="462"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="462"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="duplicateValues" dxfId="56" priority="456"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="456"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="55" priority="455"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="455"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="duplicateValues" dxfId="54" priority="453"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="453"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="53" priority="454"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="454"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="duplicateValues" dxfId="52" priority="447"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="447"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="duplicateValues" dxfId="51" priority="438"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="438"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="duplicateValues" dxfId="50" priority="445"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="445"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="49" priority="446"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="duplicateValues" dxfId="48" priority="419"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="419"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="47" priority="420"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="420"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="duplicateValues" dxfId="46" priority="421"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="421"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="duplicateValues" dxfId="45" priority="367"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="duplicateValues" dxfId="44" priority="373"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="duplicateValues" dxfId="43" priority="374"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="duplicateValues" dxfId="42" priority="348"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="348"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="duplicateValues" dxfId="41" priority="349"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="349"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="duplicateValues" dxfId="40" priority="342"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="342"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="duplicateValues" dxfId="39" priority="334"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="334"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="38" priority="340"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="340"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="duplicateValues" dxfId="37" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="341"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="duplicateValues" dxfId="36" priority="316"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="duplicateValues" dxfId="35" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="duplicateValues" dxfId="34" priority="292"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="292"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="duplicateValues" dxfId="33" priority="293"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="293"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="duplicateValues" dxfId="32" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="duplicateValues" dxfId="31" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="duplicateValues" dxfId="30" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="duplicateValues" dxfId="29" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="duplicateValues" dxfId="28" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="duplicateValues" dxfId="27" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="duplicateValues" dxfId="26" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="25" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="duplicateValues" dxfId="24" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="duplicateValues" dxfId="23" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="duplicateValues" dxfId="22" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="duplicateValues" dxfId="21" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="20" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="duplicateValues" dxfId="19" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="duplicateValues" dxfId="18" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="duplicateValues" dxfId="17" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="16" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="duplicateValues" dxfId="15" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="14" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="duplicateValues" dxfId="13" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="duplicateValues" dxfId="12" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="duplicateValues" dxfId="11" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="duplicateValues" dxfId="10" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="9" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="duplicateValues" dxfId="8" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:C36">
-    <cfRule type="duplicateValues" dxfId="7" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D37">
-    <cfRule type="duplicateValues" dxfId="6" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="duplicateValues" dxfId="5" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="duplicateValues" dxfId="4" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="duplicateValues" dxfId="3" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="duplicateValues" dxfId="2" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" text="TB" id="{6DA2D072-2460-4D4B-83C5-961EEAA2AA4D}">
+          <x14:cfRule type="containsText" priority="625" operator="containsText" text="TB" id="{6DA2D072-2460-4D4B-83C5-961EEAA2AA4D}">
             <xm:f>NOT(ISERROR(SEARCH("TB",TKP!#REF!)))</xm:f>
             <x14:dxf>
               <fill>
